--- a/position.xlsx
+++ b/position.xlsx
@@ -644,13 +644,13 @@
         <v/>
       </c>
       <c r="L1" s="21">
-        <f>0.779593</f>
+        <f>0.814240</f>
         <v/>
       </c>
       <c r="M1" s="19" t="n"/>
       <c r="N1" s="22" t="inlineStr">
         <is>
-          <t>936697</t>
+          <t>1109940</t>
         </is>
       </c>
       <c r="O1" s="19" t="n"/>
@@ -662,29 +662,29 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>cash.CNY</t>
+          <t>hk.00981</t>
         </is>
       </c>
       <c r="B2" s="15" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>中芯国际</t>
         </is>
       </c>
       <c r="C2" s="34" t="n">
-        <v>1</v>
+        <v>42.15</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>1</v>
+        <v>38.59</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>182662</v>
+        <v>5000</v>
       </c>
       <c r="F2" s="17">
         <f>D2*E2</f>
         <v/>
       </c>
       <c r="G2" s="18" t="n">
-        <v>0.0167</v>
+        <v>0</v>
       </c>
       <c r="H2" s="8">
         <f>F2/K1</f>
@@ -711,29 +711,29 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>a.600519</t>
+          <t>cash.CNY</t>
         </is>
       </c>
       <c r="B3" s="15" t="inlineStr">
         <is>
-          <t>贵州茅台</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="C3" s="34" t="n">
-        <v>1571.68</v>
+        <v>1</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>1571.68</v>
+        <v>1</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>100</v>
+        <v>182662</v>
       </c>
       <c r="F3" s="17">
         <f>D3*E3</f>
         <v/>
       </c>
       <c r="G3" s="18" t="n">
-        <v>0</v>
+        <v>0.0167</v>
       </c>
       <c r="H3" s="8">
         <f>F3/K1</f>
@@ -760,19 +760,19 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>us.AAPL</t>
+          <t>a.600519</t>
         </is>
       </c>
       <c r="B4" s="15" t="inlineStr">
         <is>
-          <t>苹果公司</t>
+          <t>贵州茅台</t>
         </is>
       </c>
       <c r="C4" s="34" t="n">
-        <v>207.15</v>
+        <v>1512.57</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>1502.58324</v>
+        <v>1512.57</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>100</v>
@@ -782,7 +782,7 @@
         <v/>
       </c>
       <c r="G4" s="18" t="n">
-        <v>0</v>
+        <v>0.0362</v>
       </c>
       <c r="H4" s="8">
         <f>F4/K1</f>
@@ -809,22 +809,22 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>us.TLT</t>
+          <t>us.AAPL</t>
         </is>
       </c>
       <c r="B5" s="15" t="inlineStr">
         <is>
-          <t>债券20+美公债指数ETF-iShares Barcla</t>
+          <t>苹果公司</t>
         </is>
       </c>
       <c r="C5" s="34" t="n">
-        <v>91.83</v>
+        <v>201.26</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>666.098088</v>
+        <v>1445.63</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F5" s="17">
         <f>D5*E5</f>
@@ -845,22 +845,22 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>us.NVDA</t>
+          <t>us.TLT</t>
         </is>
       </c>
       <c r="B6" s="15" t="inlineStr">
         <is>
-          <t>英伟达公司</t>
+          <t>债券20+美公债指数ETF-iShares Barcla</t>
         </is>
       </c>
       <c r="C6" s="35" t="n">
-        <v>120.91</v>
+        <v>85.17</v>
       </c>
       <c r="D6" s="35" t="n">
-        <v>877.0327759999999</v>
+        <v>611.77</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F6" s="26">
         <f>D6*E6</f>
@@ -881,22 +881,22 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>hk.00981</t>
+          <t>us.NVDA</t>
         </is>
       </c>
       <c r="B7" s="15" t="inlineStr">
         <is>
-          <t>中芯国际</t>
+          <t>英伟达公司</t>
         </is>
       </c>
       <c r="C7" s="35" t="n">
-        <v>17.86</v>
+        <v>136.48</v>
       </c>
       <c r="D7" s="35" t="n">
-        <v>16.59</v>
+        <v>980.3200000000001</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="F7" s="26">
         <f>D7*E7</f>
@@ -926,10 +926,10 @@
         </is>
       </c>
       <c r="C8" s="35" t="n">
-        <v>370.8</v>
+        <v>511</v>
       </c>
       <c r="D8" s="35" t="n">
-        <v>344.34</v>
+        <v>467.84</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>200</v>
@@ -939,7 +939,7 @@
         <v/>
       </c>
       <c r="G8" s="23" t="n">
-        <v>0</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="H8" s="27">
         <f>F8/K1</f>
@@ -953,22 +953,22 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>a.600483</t>
+          <t>etf.515220</t>
         </is>
       </c>
       <c r="B9" s="15" t="inlineStr">
         <is>
-          <t>福能股份</t>
+          <t>煤炭ETF</t>
         </is>
       </c>
       <c r="C9" s="35" t="n">
-        <v>11.67</v>
+        <v>0.981</v>
       </c>
       <c r="D9" s="35" t="n">
-        <v>11.67</v>
+        <v>0.981</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>3000</v>
+        <v>50000</v>
       </c>
       <c r="F9" s="26">
         <f>D9*E9</f>
@@ -989,29 +989,29 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>cash.USD</t>
+          <t>a.600483</t>
         </is>
       </c>
       <c r="B10" s="15" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>福能股份</t>
         </is>
       </c>
       <c r="C10" s="35" t="n">
-        <v>7.2536</v>
+        <v>9.59</v>
       </c>
       <c r="D10" s="35" t="n">
-        <v>7.2536</v>
+        <v>9.59</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F10" s="26">
         <f>D10*E10</f>
         <v/>
       </c>
       <c r="G10" s="23" t="n">
-        <v>0.0437</v>
+        <v>0.0323</v>
       </c>
       <c r="H10" s="27">
         <f>F10/K1</f>
@@ -1030,14 +1030,14 @@
       </c>
       <c r="B11" s="15" t="inlineStr">
         <is>
-          <t>阿里巴巴-SW</t>
+          <t>阿里巴巴-W</t>
         </is>
       </c>
       <c r="C11" s="35" t="n">
-        <v>74.15000000000001</v>
+        <v>117.8</v>
       </c>
       <c r="D11" s="35" t="n">
-        <v>68.86</v>
+        <v>107.85</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>200</v>
@@ -1047,7 +1047,7 @@
         <v/>
       </c>
       <c r="G11" s="23" t="n">
-        <v>0</v>
+        <v>0.0139</v>
       </c>
       <c r="H11" s="27">
         <f>F11/K1</f>
@@ -1061,22 +1061,22 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>cash.HKD</t>
+          <t>cash.USD</t>
         </is>
       </c>
       <c r="B12" s="15" t="inlineStr">
         <is>
-          <t>HKD</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="C12" s="35" t="n">
-        <v>0.92864</v>
+        <v>7.1829</v>
       </c>
       <c r="D12" s="35" t="n">
-        <v>0.92864</v>
+        <v>7.1829</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="F12" s="26">
         <f>D12*E12</f>
@@ -1097,29 +1097,29 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>a.000668</t>
+          <t>cash.HKD</t>
         </is>
       </c>
       <c r="B13" s="15" t="inlineStr">
         <is>
-          <t>荣丰控股</t>
+          <t>HKD</t>
         </is>
       </c>
       <c r="C13" s="35" t="n">
-        <v>6.47</v>
+        <v>0.91553</v>
       </c>
       <c r="D13" s="35" t="n">
-        <v>6.47</v>
+        <v>0.91553</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="F13" s="26">
         <f>D13*E13</f>
         <v/>
       </c>
       <c r="G13" s="23" t="n">
-        <v>0</v>
+        <v>0.0437</v>
       </c>
       <c r="H13" s="27">
         <f>F13/K1</f>
@@ -1133,18 +1133,22 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>etf.515220</t>
-        </is>
-      </c>
-      <c r="B14" s="15" t="inlineStr"/>
+          <t>a.000668</t>
+        </is>
+      </c>
+      <c r="B14" s="15" t="inlineStr">
+        <is>
+          <t>*ST荣控</t>
+        </is>
+      </c>
       <c r="C14" s="35" t="n">
-        <v>0</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="D14" s="35" t="n">
-        <v>0</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>50000</v>
+        <v>200</v>
       </c>
       <c r="F14" s="26">
         <f>D14*E14</f>
